--- a/My Docs/JE Docs/Daily JE/Accumulator Transfer/Template_00463BL_AC_Internal_Transfers.xlsx
+++ b/My Docs/JE Docs/Daily JE/Accumulator Transfer/Template_00463BL_AC_Internal_Transfers.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rashmi Use Case\Controller_Accounting\Journal_Entries\2017\2017-12\Daily\Accumulator Transfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadav\Documents\Automation Anywhere Files\Automation Anywhere\My Docs\JE Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="7488" windowWidth="19236" windowHeight="1872" tabRatio="940" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="7485" windowWidth="19230" windowHeight="1875" tabRatio="940"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="24" r:id="rId1"/>
@@ -73,7 +73,14 @@
     <definedName name="WORKSHEET">#REF!</definedName>
     <definedName name="workstream">[4]Technical!$G$2:$G$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -314,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="362">
   <si>
     <t>NAME</t>
   </si>
@@ -1376,9 +1383,6 @@
     <t>WHERE (ACCTG_DATE BETWEEN '2013-01-01' AND '2017-12-31')</t>
   </si>
   <si>
-    <t>Archana Naidu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amount in Frontier </t>
   </si>
   <si>
@@ -1406,13 +1410,22 @@
     <t xml:space="preserve">Onshore would need to post Journal for </t>
   </si>
   <si>
-    <t>Rakesh Chaudhari</t>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Abhinendra Yadav</t>
+  </si>
+  <si>
+    <t>28-5-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="29">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -11552,7 +11565,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11605,7 +11618,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11658,7 +11671,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11711,7 +11724,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11764,7 +11777,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11817,7 +11830,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11870,7 +11883,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11923,7 +11936,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11976,7 +11989,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12029,7 +12042,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12082,7 +12095,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12135,7 +12148,7 @@
         <xdr:cNvPr id="13" name="Elbow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12188,7 +12201,7 @@
         <xdr:cNvPr id="14" name="Elbow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12243,7 +12256,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12303,7 +12316,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12453,7 +12466,9 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="4">
-          <cell r="C4"/>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11"/>
@@ -13011,23 +13026,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13063,23 +13061,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13261,23 +13242,23 @@
   </sheetPr>
   <dimension ref="B1:K1576"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="2.44140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="3.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="2.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1">
@@ -13364,8 +13345,7 @@
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="41">
-        <f>G12-G8</f>
-        <v>43033</v>
+        <v>43979.691053240742</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -13393,7 +13373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="16.2" thickBot="1">
+    <row r="10" spans="2:11" ht="16.5" thickBot="1">
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -13410,7 +13390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="16.2" thickBot="1">
+    <row r="11" spans="2:11" ht="16.5" thickBot="1">
       <c r="B11" s="35"/>
       <c r="C11" s="11"/>
       <c r="D11" s="36"/>
@@ -13427,18 +13407,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="16.2" thickBot="1">
+    <row r="12" spans="2:11" ht="16.5" thickBot="1">
       <c r="B12" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="317" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E12" s="318"/>
       <c r="F12" s="40"/>
-      <c r="G12" s="41">
-        <v>43034</v>
+      <c r="G12" s="41" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -13463,19 +13443,20 @@
       <c r="F14" s="42"/>
       <c r="G14" s="44"/>
     </row>
-    <row r="15" spans="2:11" ht="16.2" thickBot="1">
+    <row r="15" spans="2:11" ht="16.5" thickBot="1">
       <c r="B15" s="39" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="317" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="318"/>
+      <c r="F15" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>359</v>
-      </c>
-      <c r="E15" s="318"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41">
-        <f>+G12</f>
-        <v>43034</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -13524,7 +13505,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="8.25" customHeight="1"/>
-    <row r="21" spans="2:11" ht="16.2" thickBot="1">
+    <row r="21" spans="2:11" ht="16.5" thickBot="1">
       <c r="B21" s="322" t="s">
         <v>42</v>
       </c>
@@ -14974,17 +14955,17 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" ht="13.8" thickBot="1"/>
-    <row r="17" spans="4:6" ht="13.8" thickBot="1">
+    <row r="16" ht="13.5" thickBot="1"/>
+    <row r="17" spans="4:6" ht="13.5" thickBot="1">
       <c r="D17" s="291" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" s="292" t="s">
         <v>8</v>
@@ -14992,20 +14973,20 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="293" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" s="294"/>
       <c r="F18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="295" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E19" s="296"/>
       <c r="F19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="4:6">
@@ -15014,30 +14995,30 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="297" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E21" s="298"/>
       <c r="F21" s="303" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="297" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E22" s="299"/>
       <c r="F22" s="303" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" ht="13.8" thickBot="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="13.5" thickBot="1">
       <c r="D23" s="300"/>
       <c r="E23" s="301"/>
     </row>
-    <row r="26" spans="4:6" ht="13.8" thickBot="1"/>
-    <row r="27" spans="4:6" ht="13.8" thickBot="1">
+    <row r="26" spans="4:6" ht="13.5" thickBot="1"/>
+    <row r="27" spans="4:6" ht="13.5" thickBot="1">
       <c r="D27" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E27" s="302">
         <f>E21</f>
@@ -15057,30 +15038,30 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8" thickBot="1">
+    <row r="1" spans="1:9" ht="13.5" thickBot="1">
       <c r="A1" s="330" t="s">
         <v>16</v>
       </c>
@@ -15822,29 +15803,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="2" width="11.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="62" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="60" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="56" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="56"/>
+    <col min="1" max="2" width="11.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="60" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="56" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17803,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="59" customFormat="1" ht="14.4">
+    <row r="57" spans="1:14" s="59" customFormat="1" ht="15">
       <c r="A57" s="193" t="s">
         <v>17</v>
       </c>
@@ -17871,7 +17852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="59" customFormat="1" ht="14.4">
+    <row r="59" spans="1:14" s="59" customFormat="1" ht="15">
       <c r="A59" s="193" t="s">
         <v>17</v>
       </c>
@@ -17939,7 +17920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="59" customFormat="1" ht="14.4">
+    <row r="61" spans="1:14" s="59" customFormat="1" ht="15">
       <c r="A61" s="193" t="s">
         <v>17</v>
       </c>
@@ -18007,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="59" customFormat="1" ht="14.4">
+    <row r="63" spans="1:14" s="59" customFormat="1" ht="15">
       <c r="A63" s="193" t="s">
         <v>17</v>
       </c>
@@ -18264,7 +18245,7 @@
       <c r="M70" s="57"/>
       <c r="N70" s="77"/>
     </row>
-    <row r="71" spans="1:15" ht="13.8" thickTop="1">
+    <row r="71" spans="1:15" ht="13.5" thickTop="1">
       <c r="O71" s="304"/>
     </row>
   </sheetData>
@@ -18285,27 +18266,27 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="39.6">
+    <row r="1" spans="1:32" ht="38.25">
       <c r="A1" s="209" t="s">
         <v>97</v>
       </c>
@@ -18373,7 +18354,7 @@
       <c r="AE1" s="213"/>
       <c r="AF1" s="213"/>
     </row>
-    <row r="2" spans="1:32" ht="26.4">
+    <row r="2" spans="1:32" ht="25.5">
       <c r="A2" s="215" t="s">
         <v>112</v>
       </c>
@@ -18441,7 +18422,7 @@
       <c r="AE2" s="213"/>
       <c r="AF2" s="213"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" ht="15">
       <c r="A3" s="217" t="s">
         <v>129</v>
       </c>
@@ -18453,16 +18434,16 @@
       </c>
       <c r="D3" s="219">
         <f>'Cover Sheet'!D8</f>
-        <v>43033</v>
+        <v>43979.691053240742</v>
       </c>
       <c r="E3" s="219">
         <f>D3</f>
-        <v>43033</v>
+        <v>43979.691053240742</v>
       </c>
       <c r="F3" s="218"/>
       <c r="G3" s="220">
         <f>MONTH(D3)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" s="218" t="s">
         <v>132</v>
@@ -18502,7 +18483,7 @@
       <c r="AE3" s="224"/>
       <c r="AF3" s="224"/>
     </row>
-    <row r="4" spans="1:32" ht="66">
+    <row r="4" spans="1:32" ht="51">
       <c r="A4" s="225" t="s">
         <v>135</v>
       </c>
@@ -18600,7 +18581,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="26.4">
+    <row r="5" spans="1:32" ht="25.5">
       <c r="A5" s="226" t="s">
         <v>203</v>
       </c>
@@ -22098,7 +22079,7 @@
       <c r="AE105" s="238"/>
       <c r="AF105" s="238"/>
     </row>
-    <row r="106" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="106" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A106" s="243"/>
       <c r="B106" s="243"/>
       <c r="C106" s="244"/>
@@ -22132,7 +22113,7 @@
       <c r="AE106" s="243"/>
       <c r="AF106" s="243"/>
     </row>
-    <row r="107" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="107" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A107" s="243"/>
       <c r="B107" s="243"/>
       <c r="C107" s="244"/>
@@ -22166,7 +22147,7 @@
       <c r="AE107" s="243"/>
       <c r="AF107" s="243"/>
     </row>
-    <row r="108" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="108" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A108" s="243"/>
       <c r="B108" s="243"/>
       <c r="C108" s="244"/>
@@ -22200,7 +22181,7 @@
       <c r="AE108" s="243"/>
       <c r="AF108" s="243"/>
     </row>
-    <row r="109" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="109" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A109" s="243"/>
       <c r="B109" s="243"/>
       <c r="C109" s="244"/>
@@ -22234,7 +22215,7 @@
       <c r="AE109" s="243"/>
       <c r="AF109" s="243"/>
     </row>
-    <row r="110" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="110" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A110" s="243"/>
       <c r="B110" s="243"/>
       <c r="C110" s="244"/>
@@ -22268,7 +22249,7 @@
       <c r="AE110" s="243"/>
       <c r="AF110" s="243"/>
     </row>
-    <row r="111" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="111" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A111" s="243"/>
       <c r="B111" s="243"/>
       <c r="C111" s="244"/>
@@ -22302,7 +22283,7 @@
       <c r="AE111" s="243"/>
       <c r="AF111" s="243"/>
     </row>
-    <row r="112" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="112" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A112" s="243"/>
       <c r="B112" s="243"/>
       <c r="C112" s="244"/>
@@ -22336,7 +22317,7 @@
       <c r="AE112" s="243"/>
       <c r="AF112" s="243"/>
     </row>
-    <row r="113" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="113" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A113" s="243"/>
       <c r="B113" s="243"/>
       <c r="C113" s="244"/>
@@ -22370,7 +22351,7 @@
       <c r="AE113" s="243"/>
       <c r="AF113" s="243"/>
     </row>
-    <row r="114" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="114" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A114" s="243"/>
       <c r="B114" s="243"/>
       <c r="C114" s="244"/>
@@ -22404,7 +22385,7 @@
       <c r="AE114" s="243"/>
       <c r="AF114" s="243"/>
     </row>
-    <row r="115" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="115" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A115" s="243"/>
       <c r="B115" s="243"/>
       <c r="C115" s="244"/>
@@ -22438,7 +22419,7 @@
       <c r="AE115" s="243"/>
       <c r="AF115" s="243"/>
     </row>
-    <row r="116" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="116" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A116" s="243"/>
       <c r="B116" s="243"/>
       <c r="C116" s="244"/>
@@ -22472,7 +22453,7 @@
       <c r="AE116" s="243"/>
       <c r="AF116" s="243"/>
     </row>
-    <row r="117" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="117" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A117" s="243"/>
       <c r="B117" s="243"/>
       <c r="C117" s="244"/>
@@ -22506,7 +22487,7 @@
       <c r="AE117" s="243"/>
       <c r="AF117" s="243"/>
     </row>
-    <row r="118" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="118" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A118" s="243"/>
       <c r="B118" s="243"/>
       <c r="C118" s="244"/>
@@ -22540,7 +22521,7 @@
       <c r="AE118" s="243"/>
       <c r="AF118" s="243"/>
     </row>
-    <row r="119" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="119" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A119" s="243"/>
       <c r="B119" s="243"/>
       <c r="C119" s="244"/>
@@ -22574,7 +22555,7 @@
       <c r="AE119" s="243"/>
       <c r="AF119" s="243"/>
     </row>
-    <row r="120" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="120" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A120" s="243"/>
       <c r="B120" s="243"/>
       <c r="C120" s="244"/>
@@ -22608,7 +22589,7 @@
       <c r="AE120" s="243"/>
       <c r="AF120" s="243"/>
     </row>
-    <row r="121" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="121" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A121" s="243"/>
       <c r="B121" s="243"/>
       <c r="C121" s="244"/>
@@ -22642,7 +22623,7 @@
       <c r="AE121" s="243"/>
       <c r="AF121" s="243"/>
     </row>
-    <row r="122" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="122" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A122" s="243"/>
       <c r="B122" s="243"/>
       <c r="C122" s="244"/>
@@ -22676,7 +22657,7 @@
       <c r="AE122" s="243"/>
       <c r="AF122" s="243"/>
     </row>
-    <row r="123" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="123" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A123" s="243"/>
       <c r="B123" s="243"/>
       <c r="C123" s="244"/>
@@ -22710,7 +22691,7 @@
       <c r="AE123" s="243"/>
       <c r="AF123" s="243"/>
     </row>
-    <row r="124" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="124" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A124" s="243"/>
       <c r="B124" s="243"/>
       <c r="C124" s="244"/>
@@ -22744,7 +22725,7 @@
       <c r="AE124" s="243"/>
       <c r="AF124" s="243"/>
     </row>
-    <row r="125" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="125" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A125" s="243"/>
       <c r="B125" s="243"/>
       <c r="C125" s="244"/>
@@ -22778,7 +22759,7 @@
       <c r="AE125" s="243"/>
       <c r="AF125" s="243"/>
     </row>
-    <row r="126" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="126" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A126" s="243"/>
       <c r="B126" s="243"/>
       <c r="C126" s="244"/>
@@ -22812,7 +22793,7 @@
       <c r="AE126" s="243"/>
       <c r="AF126" s="243"/>
     </row>
-    <row r="127" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="127" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A127" s="243"/>
       <c r="B127" s="243"/>
       <c r="C127" s="244"/>
@@ -22846,7 +22827,7 @@
       <c r="AE127" s="243"/>
       <c r="AF127" s="243"/>
     </row>
-    <row r="128" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="128" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A128" s="243"/>
       <c r="B128" s="243"/>
       <c r="C128" s="244"/>
@@ -22880,7 +22861,7 @@
       <c r="AE128" s="243"/>
       <c r="AF128" s="243"/>
     </row>
-    <row r="129" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="129" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A129" s="243"/>
       <c r="B129" s="243"/>
       <c r="C129" s="244"/>
@@ -22914,7 +22895,7 @@
       <c r="AE129" s="243"/>
       <c r="AF129" s="243"/>
     </row>
-    <row r="130" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="130" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A130" s="243"/>
       <c r="B130" s="243"/>
       <c r="C130" s="244"/>
@@ -22948,7 +22929,7 @@
       <c r="AE130" s="243"/>
       <c r="AF130" s="243"/>
     </row>
-    <row r="131" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="131" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A131" s="243"/>
       <c r="B131" s="243"/>
       <c r="C131" s="244"/>
@@ -22982,7 +22963,7 @@
       <c r="AE131" s="243"/>
       <c r="AF131" s="243"/>
     </row>
-    <row r="132" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="132" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A132" s="243"/>
       <c r="B132" s="243"/>
       <c r="C132" s="244"/>
@@ -23016,7 +22997,7 @@
       <c r="AE132" s="243"/>
       <c r="AF132" s="243"/>
     </row>
-    <row r="133" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="133" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A133" s="243"/>
       <c r="B133" s="243"/>
       <c r="C133" s="244"/>
@@ -23050,7 +23031,7 @@
       <c r="AE133" s="243"/>
       <c r="AF133" s="243"/>
     </row>
-    <row r="134" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="134" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A134" s="243"/>
       <c r="B134" s="243"/>
       <c r="C134" s="244"/>
@@ -23084,7 +23065,7 @@
       <c r="AE134" s="243"/>
       <c r="AF134" s="243"/>
     </row>
-    <row r="135" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="135" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A135" s="243"/>
       <c r="B135" s="243"/>
       <c r="C135" s="244"/>
@@ -23118,7 +23099,7 @@
       <c r="AE135" s="243"/>
       <c r="AF135" s="243"/>
     </row>
-    <row r="136" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="136" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A136" s="243"/>
       <c r="B136" s="243"/>
       <c r="C136" s="244"/>
@@ -23152,7 +23133,7 @@
       <c r="AE136" s="243"/>
       <c r="AF136" s="243"/>
     </row>
-    <row r="137" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="137" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A137" s="243"/>
       <c r="B137" s="243"/>
       <c r="C137" s="244"/>
@@ -23186,7 +23167,7 @@
       <c r="AE137" s="243"/>
       <c r="AF137" s="243"/>
     </row>
-    <row r="138" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="138" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A138" s="243"/>
       <c r="B138" s="243"/>
       <c r="C138" s="244"/>
@@ -23220,7 +23201,7 @@
       <c r="AE138" s="243"/>
       <c r="AF138" s="243"/>
     </row>
-    <row r="139" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="139" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A139" s="243"/>
       <c r="B139" s="243"/>
       <c r="C139" s="244"/>
@@ -23254,7 +23235,7 @@
       <c r="AE139" s="243"/>
       <c r="AF139" s="243"/>
     </row>
-    <row r="140" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="140" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A140" s="243"/>
       <c r="B140" s="243"/>
       <c r="C140" s="244"/>
@@ -23288,7 +23269,7 @@
       <c r="AE140" s="243"/>
       <c r="AF140" s="243"/>
     </row>
-    <row r="141" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="141" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A141" s="243"/>
       <c r="B141" s="243"/>
       <c r="C141" s="244"/>
@@ -23322,7 +23303,7 @@
       <c r="AE141" s="243"/>
       <c r="AF141" s="243"/>
     </row>
-    <row r="142" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="142" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A142" s="243"/>
       <c r="B142" s="243"/>
       <c r="C142" s="244"/>
@@ -23356,7 +23337,7 @@
       <c r="AE142" s="243"/>
       <c r="AF142" s="243"/>
     </row>
-    <row r="143" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="143" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A143" s="243"/>
       <c r="B143" s="243"/>
       <c r="C143" s="244"/>
@@ -23390,7 +23371,7 @@
       <c r="AE143" s="243"/>
       <c r="AF143" s="243"/>
     </row>
-    <row r="144" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="144" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A144" s="243"/>
       <c r="B144" s="243"/>
       <c r="C144" s="244"/>
@@ -23424,7 +23405,7 @@
       <c r="AE144" s="243"/>
       <c r="AF144" s="243"/>
     </row>
-    <row r="145" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="145" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A145" s="243"/>
       <c r="B145" s="243"/>
       <c r="C145" s="244"/>
@@ -23458,7 +23439,7 @@
       <c r="AE145" s="243"/>
       <c r="AF145" s="243"/>
     </row>
-    <row r="146" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="146" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A146" s="243"/>
       <c r="B146" s="243"/>
       <c r="C146" s="244"/>
@@ -23492,7 +23473,7 @@
       <c r="AE146" s="243"/>
       <c r="AF146" s="243"/>
     </row>
-    <row r="147" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="147" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A147" s="243"/>
       <c r="B147" s="243"/>
       <c r="C147" s="244"/>
@@ -23526,7 +23507,7 @@
       <c r="AE147" s="243"/>
       <c r="AF147" s="243"/>
     </row>
-    <row r="148" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="148" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A148" s="243"/>
       <c r="B148" s="243"/>
       <c r="C148" s="244"/>
@@ -23560,7 +23541,7 @@
       <c r="AE148" s="243"/>
       <c r="AF148" s="243"/>
     </row>
-    <row r="149" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="149" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A149" s="243"/>
       <c r="B149" s="243"/>
       <c r="C149" s="244"/>
@@ -23594,7 +23575,7 @@
       <c r="AE149" s="243"/>
       <c r="AF149" s="243"/>
     </row>
-    <row r="150" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="150" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A150" s="243"/>
       <c r="B150" s="243"/>
       <c r="C150" s="244"/>
@@ -23628,7 +23609,7 @@
       <c r="AE150" s="243"/>
       <c r="AF150" s="243"/>
     </row>
-    <row r="151" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="151" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A151" s="243"/>
       <c r="B151" s="243"/>
       <c r="C151" s="244"/>
@@ -23662,7 +23643,7 @@
       <c r="AE151" s="243"/>
       <c r="AF151" s="243"/>
     </row>
-    <row r="152" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="152" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A152" s="243"/>
       <c r="B152" s="243"/>
       <c r="C152" s="244"/>
@@ -23696,7 +23677,7 @@
       <c r="AE152" s="243"/>
       <c r="AF152" s="243"/>
     </row>
-    <row r="153" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="153" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A153" s="243"/>
       <c r="B153" s="243"/>
       <c r="C153" s="244"/>
@@ -23730,7 +23711,7 @@
       <c r="AE153" s="243"/>
       <c r="AF153" s="243"/>
     </row>
-    <row r="154" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="154" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A154" s="243"/>
       <c r="B154" s="243"/>
       <c r="C154" s="244"/>
@@ -23764,7 +23745,7 @@
       <c r="AE154" s="243"/>
       <c r="AF154" s="243"/>
     </row>
-    <row r="155" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="155" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A155" s="243"/>
       <c r="B155" s="243"/>
       <c r="C155" s="244"/>
@@ -23798,7 +23779,7 @@
       <c r="AE155" s="243"/>
       <c r="AF155" s="243"/>
     </row>
-    <row r="156" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="156" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A156" s="243"/>
       <c r="B156" s="243"/>
       <c r="C156" s="244"/>
@@ -23832,7 +23813,7 @@
       <c r="AE156" s="243"/>
       <c r="AF156" s="243"/>
     </row>
-    <row r="157" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="157" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A157" s="243"/>
       <c r="B157" s="243"/>
       <c r="C157" s="244"/>
@@ -23866,7 +23847,7 @@
       <c r="AE157" s="243"/>
       <c r="AF157" s="243"/>
     </row>
-    <row r="158" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="158" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A158" s="243"/>
       <c r="B158" s="243"/>
       <c r="C158" s="244"/>
@@ -23900,7 +23881,7 @@
       <c r="AE158" s="243"/>
       <c r="AF158" s="243"/>
     </row>
-    <row r="159" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="159" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A159" s="243"/>
       <c r="B159" s="243"/>
       <c r="C159" s="244"/>
@@ -23934,7 +23915,7 @@
       <c r="AE159" s="243"/>
       <c r="AF159" s="243"/>
     </row>
-    <row r="160" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="160" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A160" s="243"/>
       <c r="B160" s="243"/>
       <c r="C160" s="244"/>
@@ -23968,7 +23949,7 @@
       <c r="AE160" s="243"/>
       <c r="AF160" s="243"/>
     </row>
-    <row r="161" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="161" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A161" s="243"/>
       <c r="B161" s="243"/>
       <c r="C161" s="244"/>
@@ -24002,7 +23983,7 @@
       <c r="AE161" s="243"/>
       <c r="AF161" s="243"/>
     </row>
-    <row r="162" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="162" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A162" s="243"/>
       <c r="B162" s="243"/>
       <c r="C162" s="244"/>
@@ -24036,7 +24017,7 @@
       <c r="AE162" s="243"/>
       <c r="AF162" s="243"/>
     </row>
-    <row r="163" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="163" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A163" s="243"/>
       <c r="B163" s="243"/>
       <c r="C163" s="244"/>
@@ -24070,7 +24051,7 @@
       <c r="AE163" s="243"/>
       <c r="AF163" s="243"/>
     </row>
-    <row r="164" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="164" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A164" s="243"/>
       <c r="B164" s="243"/>
       <c r="C164" s="244"/>
@@ -24104,7 +24085,7 @@
       <c r="AE164" s="243"/>
       <c r="AF164" s="243"/>
     </row>
-    <row r="165" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="165" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A165" s="243"/>
       <c r="B165" s="243"/>
       <c r="C165" s="244"/>
@@ -24138,7 +24119,7 @@
       <c r="AE165" s="243"/>
       <c r="AF165" s="243"/>
     </row>
-    <row r="166" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="166" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A166" s="243"/>
       <c r="B166" s="243"/>
       <c r="C166" s="244"/>
@@ -24172,7 +24153,7 @@
       <c r="AE166" s="243"/>
       <c r="AF166" s="243"/>
     </row>
-    <row r="167" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="167" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A167" s="243"/>
       <c r="B167" s="243"/>
       <c r="C167" s="244"/>
@@ -24206,7 +24187,7 @@
       <c r="AE167" s="243"/>
       <c r="AF167" s="243"/>
     </row>
-    <row r="168" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="168" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A168" s="243"/>
       <c r="B168" s="243"/>
       <c r="C168" s="244"/>
@@ -24240,7 +24221,7 @@
       <c r="AE168" s="243"/>
       <c r="AF168" s="243"/>
     </row>
-    <row r="169" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="169" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A169" s="243"/>
       <c r="B169" s="243"/>
       <c r="C169" s="244"/>
@@ -24274,7 +24255,7 @@
       <c r="AE169" s="243"/>
       <c r="AF169" s="243"/>
     </row>
-    <row r="170" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="170" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A170" s="243"/>
       <c r="B170" s="243"/>
       <c r="C170" s="244"/>
@@ -24308,7 +24289,7 @@
       <c r="AE170" s="243"/>
       <c r="AF170" s="243"/>
     </row>
-    <row r="171" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="171" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A171" s="243"/>
       <c r="B171" s="243"/>
       <c r="C171" s="244"/>
@@ -24342,7 +24323,7 @@
       <c r="AE171" s="243"/>
       <c r="AF171" s="243"/>
     </row>
-    <row r="172" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="172" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A172" s="243"/>
       <c r="B172" s="243"/>
       <c r="C172" s="244"/>
@@ -24376,7 +24357,7 @@
       <c r="AE172" s="243"/>
       <c r="AF172" s="243"/>
     </row>
-    <row r="173" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="173" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A173" s="243"/>
       <c r="B173" s="243"/>
       <c r="C173" s="244"/>
@@ -24410,7 +24391,7 @@
       <c r="AE173" s="243"/>
       <c r="AF173" s="243"/>
     </row>
-    <row r="174" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="174" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A174" s="243"/>
       <c r="B174" s="243"/>
       <c r="C174" s="244"/>
@@ -24444,7 +24425,7 @@
       <c r="AE174" s="243"/>
       <c r="AF174" s="243"/>
     </row>
-    <row r="175" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="175" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A175" s="243"/>
       <c r="B175" s="243"/>
       <c r="C175" s="244"/>
@@ -24478,7 +24459,7 @@
       <c r="AE175" s="243"/>
       <c r="AF175" s="243"/>
     </row>
-    <row r="176" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="176" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A176" s="243"/>
       <c r="B176" s="243"/>
       <c r="C176" s="244"/>
@@ -24512,7 +24493,7 @@
       <c r="AE176" s="243"/>
       <c r="AF176" s="243"/>
     </row>
-    <row r="177" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="177" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A177" s="243"/>
       <c r="B177" s="243"/>
       <c r="C177" s="244"/>
@@ -24546,7 +24527,7 @@
       <c r="AE177" s="243"/>
       <c r="AF177" s="243"/>
     </row>
-    <row r="178" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="178" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A178" s="243"/>
       <c r="B178" s="243"/>
       <c r="C178" s="244"/>
@@ -24580,7 +24561,7 @@
       <c r="AE178" s="243"/>
       <c r="AF178" s="243"/>
     </row>
-    <row r="179" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="179" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A179" s="243"/>
       <c r="B179" s="243"/>
       <c r="C179" s="244"/>
@@ -24614,7 +24595,7 @@
       <c r="AE179" s="243"/>
       <c r="AF179" s="243"/>
     </row>
-    <row r="180" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="180" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A180" s="243"/>
       <c r="B180" s="243"/>
       <c r="C180" s="244"/>
@@ -24648,7 +24629,7 @@
       <c r="AE180" s="243"/>
       <c r="AF180" s="243"/>
     </row>
-    <row r="181" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="181" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A181" s="243"/>
       <c r="B181" s="243"/>
       <c r="C181" s="244"/>
@@ -24682,7 +24663,7 @@
       <c r="AE181" s="243"/>
       <c r="AF181" s="243"/>
     </row>
-    <row r="182" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="182" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A182" s="243"/>
       <c r="B182" s="243"/>
       <c r="C182" s="244"/>
@@ -24716,7 +24697,7 @@
       <c r="AE182" s="243"/>
       <c r="AF182" s="243"/>
     </row>
-    <row r="183" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="183" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A183" s="243"/>
       <c r="B183" s="243"/>
       <c r="C183" s="244"/>
@@ -24750,7 +24731,7 @@
       <c r="AE183" s="243"/>
       <c r="AF183" s="243"/>
     </row>
-    <row r="184" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="184" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A184" s="243"/>
       <c r="B184" s="243"/>
       <c r="C184" s="244"/>
@@ -24784,7 +24765,7 @@
       <c r="AE184" s="243"/>
       <c r="AF184" s="243"/>
     </row>
-    <row r="185" spans="1:32" s="248" customFormat="1" ht="14.4">
+    <row r="185" spans="1:32" s="248" customFormat="1" ht="15">
       <c r="A185" s="243"/>
       <c r="B185" s="243"/>
       <c r="C185" s="244"/>
@@ -24818,7 +24799,7 @@
       <c r="AE185" s="243"/>
       <c r="AF185" s="243"/>
     </row>
-    <row r="186" spans="1:32" ht="14.4">
+    <row r="186" spans="1:32" ht="15">
       <c r="A186" s="214"/>
       <c r="B186" s="214"/>
       <c r="C186" s="214"/>
@@ -24868,24 +24849,24 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="143" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="143" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" style="143" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="143" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="144" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="143" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="145" customWidth="1"/>
-    <col min="8" max="10" width="18.44140625" style="143" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" style="160" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="16" width="18.44140625" style="143" customWidth="1"/>
-    <col min="17" max="17" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="143" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="143" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="143" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="143" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="144" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="143" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="145" customWidth="1"/>
+    <col min="8" max="10" width="18.42578125" style="143" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="160" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="16" width="18.42578125" style="143" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="102" customFormat="1" ht="24.6">
+    <row r="1" spans="1:19" s="102" customFormat="1" ht="26.25">
       <c r="A1" s="331" t="s">
         <v>67</v>
       </c>
@@ -24952,7 +24933,7 @@
       <c r="R3" s="101"/>
       <c r="S3" s="101"/>
     </row>
-    <row r="4" spans="1:19" s="102" customFormat="1" ht="41.4">
+    <row r="4" spans="1:19" s="102" customFormat="1" ht="42.75">
       <c r="A4" s="105"/>
       <c r="B4" s="105"/>
       <c r="C4" s="105"/>
@@ -26523,19 +26504,19 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -28143,7 +28124,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
@@ -28165,17 +28146,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.4">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" s="198" t="s">
         <v>81</v>
       </c>
@@ -28201,7 +28182,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.4">
+    <row r="2" spans="1:19" ht="15">
       <c r="A2" s="198" t="s">
         <v>82</v>
       </c>
@@ -28222,7 +28203,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.4">
+    <row r="3" spans="1:19" ht="15">
       <c r="A3" s="198" t="s">
         <v>348</v>
       </c>
@@ -28243,7 +28224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.4">
+    <row r="4" spans="1:19" ht="15">
       <c r="A4" s="198" t="s">
         <v>83</v>
       </c>
@@ -28264,7 +28245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.4">
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="198" t="s">
         <v>84</v>
       </c>
@@ -28285,7 +28266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.4">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="198" t="s">
         <v>85</v>
       </c>
@@ -28306,7 +28287,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.4">
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="198" t="s">
         <v>81</v>
       </c>
@@ -28327,7 +28308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.4">
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="198" t="s">
         <v>86</v>
       </c>
@@ -28348,7 +28329,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="198" t="s">
         <v>348</v>
       </c>
@@ -28369,7 +28350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
       <c r="A10" s="198" t="s">
         <v>83</v>
       </c>
@@ -28390,7 +28371,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
       <c r="A11" s="198" t="s">
         <v>84</v>
       </c>
@@ -28411,7 +28392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.8" thickBot="1">
+    <row r="12" spans="1:19" ht="13.5" thickBot="1">
       <c r="K12" s="204"/>
       <c r="L12" s="202"/>
       <c r="O12" s="135"/>
@@ -28429,7 +28410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.8" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1">
       <c r="K13" s="204"/>
       <c r="L13" s="202"/>
       <c r="O13" s="135"/>
@@ -28447,7 +28428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.8" thickBot="1">
+    <row r="14" spans="1:19" ht="13.5" thickBot="1">
       <c r="B14" s="64" t="s">
         <v>87</v>
       </c>
@@ -28468,7 +28449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.8" thickBot="1">
+    <row r="15" spans="1:19" ht="13.5" thickBot="1">
       <c r="A15" s="199" t="s">
         <v>88</v>
       </c>
@@ -28503,7 +28484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.8" thickBot="1">
+    <row r="16" spans="1:19" ht="13.5" thickBot="1">
       <c r="A16" s="199" t="s">
         <v>88</v>
       </c>
@@ -37985,34 +37966,34 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="286" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="286" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="286"/>
-    <col min="4" max="4" width="11.5546875" style="286" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="286"/>
-    <col min="6" max="6" width="10.44140625" style="286" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="286"/>
-    <col min="9" max="10" width="12.44140625" style="286" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" style="286" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="286"/>
-    <col min="13" max="13" width="12.6640625" style="286" customWidth="1"/>
-    <col min="14" max="16" width="9.109375" style="286"/>
-    <col min="17" max="17" width="12.5546875" style="286" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" style="286" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="286"/>
-    <col min="20" max="20" width="12.5546875" style="286" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="286" customWidth="1"/>
-    <col min="22" max="23" width="9.109375" style="286"/>
-    <col min="24" max="24" width="9.6640625" style="286" customWidth="1"/>
-    <col min="25" max="25" width="15.44140625" style="286" customWidth="1"/>
-    <col min="26" max="33" width="9.109375" style="286"/>
-    <col min="34" max="74" width="9.109375" style="286" hidden="1" customWidth="1"/>
-    <col min="75" max="16384" width="9.109375" style="286"/>
+    <col min="1" max="1" width="18.42578125" style="286" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="286" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="286"/>
+    <col min="4" max="4" width="11.5703125" style="286" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="286"/>
+    <col min="6" max="6" width="10.42578125" style="286" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="286"/>
+    <col min="9" max="10" width="12.42578125" style="286" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="286" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="286"/>
+    <col min="13" max="13" width="12.7109375" style="286" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="286"/>
+    <col min="17" max="17" width="12.5703125" style="286" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="286" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="286"/>
+    <col min="20" max="20" width="12.5703125" style="286" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="286" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="286"/>
+    <col min="24" max="24" width="9.7109375" style="286" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" style="286" customWidth="1"/>
+    <col min="26" max="33" width="9.140625" style="286"/>
+    <col min="34" max="74" width="9.140625" style="286" hidden="1" customWidth="1"/>
+    <col min="75" max="16384" width="9.140625" style="286"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="255" customFormat="1" ht="30.6">
+    <row r="1" spans="1:84" s="255" customFormat="1" ht="33.75">
       <c r="A1" s="249" t="s">
         <v>285</v>
       </c>
@@ -38134,7 +38115,7 @@
       <c r="CE1" s="254"/>
       <c r="CF1" s="254"/>
     </row>
-    <row r="2" spans="1:84" s="255" customFormat="1" ht="26.4">
+    <row r="2" spans="1:84" s="255" customFormat="1" ht="25.5">
       <c r="A2" s="249" t="s">
         <v>285</v>
       </c>
@@ -38256,7 +38237,7 @@
       <c r="CE2" s="254"/>
       <c r="CF2" s="254"/>
     </row>
-    <row r="3" spans="1:84" s="255" customFormat="1" ht="26.4">
+    <row r="3" spans="1:84" s="255" customFormat="1" ht="25.5">
       <c r="A3" s="258" t="s">
         <v>286</v>
       </c>
@@ -38369,7 +38350,7 @@
       <c r="CE3" s="266"/>
       <c r="CF3" s="266"/>
     </row>
-    <row r="4" spans="1:84" s="255" customFormat="1" ht="51">
+    <row r="4" spans="1:84" s="255" customFormat="1" ht="78.75">
       <c r="A4" s="249" t="s">
         <v>285</v>
       </c>
@@ -38603,7 +38584,7 @@
       <c r="CE4" s="271"/>
       <c r="CF4" s="271"/>
     </row>
-    <row r="5" spans="1:84" s="255" customFormat="1" ht="30.6">
+    <row r="5" spans="1:84" s="255" customFormat="1" ht="33.75">
       <c r="A5" s="249" t="s">
         <v>285</v>
       </c>
@@ -38837,7 +38818,7 @@
       <c r="CE5" s="271"/>
       <c r="CF5" s="271"/>
     </row>
-    <row r="6" spans="1:84" s="255" customFormat="1" ht="26.4">
+    <row r="6" spans="1:84" s="255" customFormat="1" ht="25.5">
       <c r="A6" s="258" t="s">
         <v>295</v>
       </c>
@@ -38931,7 +38912,7 @@
       <c r="BU6" s="273"/>
       <c r="BV6" s="273"/>
     </row>
-    <row r="7" spans="1:84" s="255" customFormat="1" ht="26.4">
+    <row r="7" spans="1:84" s="255" customFormat="1" ht="25.5">
       <c r="A7" s="258" t="s">
         <v>299</v>
       </c>
@@ -39025,7 +39006,7 @@
       <c r="BU7" s="273"/>
       <c r="BV7" s="273"/>
     </row>
-    <row r="8" spans="1:84" s="255" customFormat="1" ht="17.399999999999999">
+    <row r="8" spans="1:84" s="255" customFormat="1" ht="18">
       <c r="A8" s="277" t="s">
         <v>302</v>
       </c>
@@ -39039,7 +39020,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:84" s="255" customFormat="1" ht="17.399999999999999">
+    <row r="9" spans="1:84" s="255" customFormat="1" ht="18">
       <c r="A9" s="277"/>
     </row>
     <row r="10" spans="1:84" s="255" customFormat="1">
